--- a/temp.xlsx
+++ b/temp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>No.</t>
   </si>
@@ -107,6 +107,9 @@
     <t>Pre-Initiating event for H5</t>
   </si>
   <si>
+    <t>Patient too heavy</t>
+  </si>
+  <si>
     <t>H6</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
   </si>
   <si>
     <t>Robot handle was damaged.</t>
+  </si>
+  <si>
+    <t>Somebody sabotaged the handle probably special agents from another company in the same market trying to make us go out of business!!!!</t>
   </si>
 </sst>
 </file>
@@ -269,7 +275,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.2109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="95.78125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="143.203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -512,52 +518,68 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="11">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s" s="11">
+    <row r="35">
+      <c r="A35" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="11">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s" s="12">
+    <row r="38">
+      <c r="A38" t="s" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s" s="11">
+      <c r="B38" t="s" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s" s="12">
-        <v>33</v>
-      </c>
-    </row>
     <row r="40">
-      <c r="A40" t="s" s="11">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s" s="11">
+      <c r="A40" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s" s="12">
         <v>34</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="12">
+      <c r="A41" t="s" s="11">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="B41" t="s" s="12">
-        <v>35</v>
+      <c r="B42" t="s" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s" s="12">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
   <si>
     <t>No.</t>
   </si>
@@ -23,7 +23,7 @@
     <t>H1</t>
   </si>
   <si>
-    <t>Balance support(Being lifted:Robot Handle)(Balance supporter&lt;vsd&gt;:Patient)</t>
+    <t>Electricity Consumption(Electric Source:Battery)(Electric Consumer&lt;Unstable Physical Structure&gt;:Robot)</t>
   </si>
   <si>
     <t/>
@@ -32,7 +32,7 @@
     <t>Natural Language Hazard Description</t>
   </si>
   <si>
-    <t>elöfe</t>
+    <t>Unstable physical Structure when supporting Patient.</t>
   </si>
   <si>
     <t>Pre-Initiating event for H1</t>
@@ -41,7 +41,13 @@
     <t>Cause 1</t>
   </si>
   <si>
-    <t>sfe</t>
+    <t>Something hit the structure</t>
+  </si>
+  <si>
+    <t>Cause 2</t>
+  </si>
+  <si>
+    <t>Patient too heavy</t>
   </si>
   <si>
     <t>Severity</t>
@@ -53,58 +59,103 @@
     <t>0.75</t>
   </si>
   <si>
+    <t>Risk Evaluation</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>0.5625</t>
+  </si>
+  <si>
+    <t>Denied</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>BalanceSupport(Balance Supporter:Robot Handle)(Being Supported&lt;Too Heavy&gt;:Patient)</t>
+  </si>
+  <si>
+    <t>Patient is too heavy for the robot to lift.</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H2</t>
+  </si>
+  <si>
+    <t>Patient has eaten to much so the robot can't handle the weight.</t>
+  </si>
+  <si>
+    <t>Robot does not have enough lift power</t>
+  </si>
+  <si>
+    <t>Cause 3</t>
+  </si>
+  <si>
+    <t>Something is blocking the lifter.</t>
+  </si>
+  <si>
+    <t>Cause 4</t>
+  </si>
+  <si>
+    <t>2 people are sitting on the robot</t>
+  </si>
+  <si>
     <t>0.25</t>
   </si>
   <si>
-    <t>Risk Evaluation</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>0.1875</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>LiftUp(Being Lifted:Patient)(Object Lifter&lt;Too fast movement&gt;:Robot Handle)</t>
+  </si>
+  <si>
+    <t>Robot moves too fast while lifing patient.</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H3</t>
+  </si>
+  <si>
+    <t>The speed setting for the lift is too high.</t>
+  </si>
+  <si>
+    <t>Fabrication Error</t>
   </si>
   <si>
     <t>Accept</t>
   </si>
   <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>Balance support(Being supported:Patient)(Balance supporter&lt;sef&gt;:Patient)</t>
-  </si>
-  <si>
-    <t>ssef</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H2</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>Denied</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>Balance support(Being lifted:Robot Handle)(Being supported&lt;fewf&gt;:Patient)</t>
-  </si>
-  <si>
-    <t>wef</t>
-  </si>
-  <si>
-    <t>Pre-Initiating event for H3</t>
-  </si>
-  <si>
-    <t>0.0625</t>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>Electricity Consumption(Electric Consumer:Robot)(Electric Source&lt;Battery Explosion&gt;:Battery)</t>
+  </si>
+  <si>
+    <t>Battery got exposed to air.</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H4</t>
+  </si>
+  <si>
+    <t>It got damaged</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>Electricity Consumption(Electric Source:Battery)(Electric Consumer&lt;Robot stops&gt;:Robot)</t>
+  </si>
+  <si>
+    <t>No battery</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H5</t>
   </si>
 </sst>
 </file>
@@ -112,7 +163,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -147,6 +198,24 @@
       <name val="Arial"/>
       <sz val="12.0"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -180,16 +249,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -197,28 +266,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
@@ -237,7 +338,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="79.15234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="106.8671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -289,147 +390,147 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="1">
+      <c r="A7" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B7" t="s" s="1">
+      <c r="B7" t="s" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="A8" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" t="s" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="1">
+      <c r="A9" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="1">
+      <c r="B9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="B10" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="B10" t="s" s="3">
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="4">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s" s="4">
+      <c r="B11" t="s" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="4">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s" s="5">
+    <row r="14">
+      <c r="A14" t="s" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s" s="4">
+      <c r="B14" t="s" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s" s="5">
-        <v>20</v>
-      </c>
-    </row>
     <row r="16">
-      <c r="A16" t="s" s="4">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s" s="4">
+      <c r="A16" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="5">
+      <c r="A17" t="s" s="4">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="B17" t="s" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s" s="4">
-        <v>11</v>
+      <c r="B18" t="s" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="5">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s" s="4">
-        <v>15</v>
+      <c r="A20" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s" s="5">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s" s="6">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B21" t="s" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="7">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s" s="7">
-        <v>1</v>
+      <c r="A23" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s" s="5">
+        <v>30</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s" s="8">
-        <v>27</v>
+      <c r="A24" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s" s="8">
-        <v>28</v>
+      <c r="A25" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s" s="6">
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -437,39 +538,233 @@
         <v>0</v>
       </c>
       <c r="B27" t="s" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="7">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="8">
         <v>29</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="8">
+      <c r="B35" t="s" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="10">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="10">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="B29" t="s" s="8">
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="13">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="14">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="13">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="13">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s" s="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="13">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s" s="13">
         <v>13</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s" s="7">
+    <row r="56">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s" s="9">
-        <v>17</v>
+      <c r="B57" t="s" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="14"/>
+      <c r="B58" t="s" s="15">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>No.</t>
   </si>
@@ -23,7 +23,7 @@
     <t>H1</t>
   </si>
   <si>
-    <t>Electricity Consumption(Electric Source:Battery)(Electric Consumer&lt;Unstable Physical Structure&gt;:Robot)</t>
+    <t>BalanceSupport(Balance Supporter:Robot Handle)(Being Supported&lt;Too Heavy&gt;:Patient)</t>
   </si>
   <si>
     <t/>
@@ -32,7 +32,7 @@
     <t>Natural Language Hazard Description</t>
   </si>
   <si>
-    <t>Unstable physical Structure when supporting Patient.</t>
+    <t>Patient is too heavy for the robot to lift.</t>
   </si>
   <si>
     <t>Pre-Initiating event for H1</t>
@@ -41,13 +41,25 @@
     <t>Cause 1</t>
   </si>
   <si>
-    <t>Something hit the structure</t>
+    <t>Patient has eaten to much so the robot can't handle the weight.</t>
   </si>
   <si>
     <t>Cause 2</t>
   </si>
   <si>
-    <t>Patient too heavy</t>
+    <t>Robot does not have enough lift power</t>
+  </si>
+  <si>
+    <t>Cause 3</t>
+  </si>
+  <si>
+    <t>Something is blocking the lifter.</t>
+  </si>
+  <si>
+    <t>Cause 4</t>
+  </si>
+  <si>
+    <t>2 people are sitting on the robot</t>
   </si>
   <si>
     <t>Severity</t>
@@ -56,7 +68,10 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>0.75</t>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
   <si>
     <t>Risk Evaluation</t>
@@ -65,7 +80,7 @@
     <t>Risk</t>
   </si>
   <si>
-    <t>0.5625</t>
+    <t>0.125</t>
   </si>
   <si>
     <t>Denied</t>
@@ -74,88 +89,64 @@
     <t>H2</t>
   </si>
   <si>
-    <t>BalanceSupport(Balance Supporter:Robot Handle)(Being Supported&lt;Too Heavy&gt;:Patient)</t>
-  </si>
-  <si>
-    <t>Patient is too heavy for the robot to lift.</t>
+    <t>LiftUp(Being Lifted:Patient)(Object Lifter&lt;Too fast movement&gt;:Robot Handle)</t>
+  </si>
+  <si>
+    <t>Robot moves too fast while lifing patient.</t>
   </si>
   <si>
     <t>Pre-Initiating event for H2</t>
   </si>
   <si>
-    <t>Patient has eaten to much so the robot can't handle the weight.</t>
-  </si>
-  <si>
-    <t>Robot does not have enough lift power</t>
-  </si>
-  <si>
-    <t>Cause 3</t>
-  </si>
-  <si>
-    <t>Something is blocking the lifter.</t>
-  </si>
-  <si>
-    <t>Cause 4</t>
-  </si>
-  <si>
-    <t>2 people are sitting on the robot</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.125</t>
+    <t>The speed setting for the lift is too high.</t>
+  </si>
+  <si>
+    <t>Fabrication Error</t>
+  </si>
+  <si>
+    <t>Accept</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>LiftUp(Being Lifted:Patient)(Object Lifter&lt;Too fast movement&gt;:Robot Handle)</t>
-  </si>
-  <si>
-    <t>Robot moves too fast while lifing patient.</t>
+    <t>Electricity Consumption(Electric Consumer:Robot)(Electric Source&lt;Battery Explosion&gt;:Battery)</t>
+  </si>
+  <si>
+    <t>Battery got exposed to air.</t>
   </si>
   <si>
     <t>Pre-Initiating event for H3</t>
   </si>
   <si>
-    <t>The speed setting for the lift is too high.</t>
-  </si>
-  <si>
-    <t>Fabrication Error</t>
-  </si>
-  <si>
-    <t>Accept</t>
+    <t>It got damaged</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>Electricity Consumption(Electric Consumer:Robot)(Electric Source&lt;Battery Explosion&gt;:Battery)</t>
-  </si>
-  <si>
-    <t>Battery got exposed to air.</t>
+    <t>Electricity Consumption(Electric Source:Battery)(Electric Consumer&lt;Robot stops&gt;:Robot)</t>
+  </si>
+  <si>
+    <t>No battery</t>
   </si>
   <si>
     <t>Pre-Initiating event for H4</t>
   </si>
   <si>
-    <t>It got damaged</t>
-  </si>
-  <si>
     <t>H5</t>
   </si>
   <si>
-    <t>Electricity Consumption(Electric Source:Battery)(Electric Consumer&lt;Robot stops&gt;:Robot)</t>
-  </si>
-  <si>
-    <t>No battery</t>
+    <t>Electricity Consumption(Electric Source:Battery)(Electric Consumer&lt;Robot dont move&gt;:Robot)</t>
+  </si>
+  <si>
+    <t>Low battery</t>
   </si>
   <si>
     <t>Pre-Initiating event for H5</t>
+  </si>
+  <si>
+    <t>Robot used upp all electricity</t>
   </si>
 </sst>
 </file>
@@ -172,48 +163,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Liberation Sans"/>
       <sz val="12.0"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Liberation Sans"/>
       <sz val="12.0"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Liberation Sans"/>
       <sz val="12.0"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Liberation Sans"/>
       <sz val="12.0"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Liberation Sans"/>
       <sz val="16.0"/>
       <b val="true"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Liberation Sans"/>
       <sz val="12.0"/>
     </font>
   </fonts>
@@ -267,22 +258,22 @@
       <diagonal/>
     </border>
     <border>
-      <top style="medium"/>
+      <top style="thin"/>
     </border>
     <border>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
     </border>
     <border>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -301,7 +292,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
@@ -315,14 +306,14 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="false"/>
     </xf>
   </cellXfs>
@@ -337,8 +328,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="106.8671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.23046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="85.0625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -398,10 +389,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="1">
+      <c r="A8" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B8" t="s" s="1">
+      <c r="B8" t="s" s="2">
         <v>13</v>
       </c>
     </row>
@@ -410,127 +401,127 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s" s="3">
         <v>18</v>
       </c>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="4">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s" s="5">
-        <v>20</v>
+      <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="5">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s" s="5">
-        <v>24</v>
+      <c r="A19" t="s" s="4">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s" s="4">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="5">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="5">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="5">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="5">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s" s="6">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -543,10 +534,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B28" t="s" s="8">
-        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -562,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -570,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -578,193 +569,191 @@
         <v>8</v>
       </c>
       <c r="B32" t="s" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="10">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="11">
         <v>36</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s" s="8">
+      <c r="B39" t="s" s="11">
         <v>37</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="B35" t="s" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s" s="9">
+    <row r="40">
+      <c r="A40" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s" s="11">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="10">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="11">
+    <row r="42">
+      <c r="A42" t="s" s="10">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s" s="10">
         <v>39</v>
-      </c>
-      <c r="B40" t="s" s="11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="10">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s" s="11">
-        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s" s="10">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="11">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s" s="11">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s" s="10">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s" s="10">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B46" t="s" s="12">
+        <v>23</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="B48" t="s" s="12">
-        <v>38</v>
+      <c r="A48" t="s" s="13">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="14">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s" s="14">
+        <v>41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="14">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s" s="14">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s" s="13">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s" s="14">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s" s="13">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="B55" t="s" s="13">
-        <v>13</v>
+      <c r="A55" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s" s="14">
+        <v>18</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
+      <c r="A56" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s" s="13">
+        <v>21</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="B57" t="s" s="13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="14"/>
-      <c r="B58" t="s" s="15">
-        <v>18</v>
+      <c r="A57" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s" s="15">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
   <si>
     <t>No.</t>
   </si>
@@ -147,6 +147,27 @@
   </si>
   <si>
     <t>Robot used upp all electricity</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>Bed(Sick:Patient)(Healing Patient&lt;Doctor get sick&gt;:Doctor)</t>
+  </si>
+  <si>
+    <t>Not enough protection when visiting sick patient</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H6</t>
+  </si>
+  <si>
+    <t>Protection suit had a hole</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.5625</t>
   </si>
 </sst>
 </file>
@@ -154,13 +175,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -279,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
@@ -314,6 +344,13 @@
       <alignment wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="false"/>
     </xf>
   </cellXfs>
@@ -756,6 +793,86 @@
         <v>30</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="s" s="16">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="17">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s" s="17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="16">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="17">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="16">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s" s="16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s" s="17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="17">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="17">
+        <v>51</v>
+      </c>
+      <c r="B68" t="s" s="18">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
   <si>
     <t>No.</t>
   </si>
@@ -134,6 +134,9 @@
     <t>Pre-Initiating event for H4</t>
   </si>
   <si>
+    <t>Somebody forgot to put it in.</t>
+  </si>
+  <si>
     <t>H5</t>
   </si>
   <si>
@@ -168,6 +171,24 @@
   </si>
   <si>
     <t>0.5625</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>LiftUp(Object Lifter:Robot Handle)(Being Lifted&lt;Patient is dropped&gt;:Patient)</t>
+  </si>
+  <si>
+    <t>Robot handle is unstable and dropps the patient.</t>
+  </si>
+  <si>
+    <t>Pre-Initiating event for H7</t>
+  </si>
+  <si>
+    <t>No stabilizer</t>
+  </si>
+  <si>
+    <t>0.375</t>
   </si>
 </sst>
 </file>
@@ -175,13 +196,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Liberation Sans"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Liberation Sans"/>
@@ -309,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
@@ -351,6 +381,13 @@
       <alignment wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="false"/>
     </xf>
   </cellXfs>
@@ -682,195 +719,283 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="10">
+      <c r="A43" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="B43" t="s" s="10">
+      <c r="B44" t="s" s="10">
         <v>17</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="11">
+    <row r="45">
+      <c r="A45" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="B44" t="s" s="11">
+      <c r="B45" t="s" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s" s="10">
+    <row r="46">
+      <c r="A46" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="B45" t="s" s="10">
+      <c r="B46" t="s" s="10">
         <v>21</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="11">
+    <row r="47">
+      <c r="A47" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="B46" t="s" s="12">
+      <c r="B47" t="s" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="13">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s" s="13">
+    <row r="49">
+      <c r="A49" t="s" s="13">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="B49" t="s" s="14">
+    <row r="50">
+      <c r="A50" t="s" s="14">
         <v>41</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="13">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s" s="13">
+      <c r="B50" t="s" s="14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="13">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="14">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s" s="14">
-        <v>42</v>
-      </c>
-    </row>
     <row r="52">
-      <c r="A52" t="s" s="13">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s" s="13">
+      <c r="A52" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s" s="14">
         <v>43</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="14">
+      <c r="A53" t="s" s="13">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s" s="13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="B53" t="s" s="14">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="13">
+      <c r="B54" t="s" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="B54" t="s" s="13">
+      <c r="B55" t="s" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="14">
+    <row r="56">
+      <c r="A56" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="B55" t="s" s="14">
+      <c r="B56" t="s" s="14">
         <v>18</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s" s="13">
+    <row r="57">
+      <c r="A57" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="B56" t="s" s="13">
+      <c r="B57" t="s" s="13">
         <v>21</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s" s="14">
+    <row r="58">
+      <c r="A58" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="B57" t="s" s="15">
+      <c r="B58" t="s" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s" s="16">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s" s="16">
+    <row r="60">
+      <c r="A60" t="s" s="16">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s" s="17">
-        <v>45</v>
-      </c>
-      <c r="B60" t="s" s="17">
+    <row r="61">
+      <c r="A61" t="s" s="17">
         <v>46</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="16">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s" s="16">
+      <c r="B61" t="s" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="16">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="s" s="17">
-        <v>4</v>
-      </c>
-      <c r="B62" t="s" s="17">
-        <v>47</v>
-      </c>
-    </row>
     <row r="63">
-      <c r="A63" t="s" s="16">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s" s="16">
+      <c r="A63" t="s" s="17">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s" s="17">
         <v>48</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="17">
+      <c r="A64" t="s" s="16">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s" s="16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="17">
         <v>8</v>
       </c>
-      <c r="B64" t="s" s="17">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="16">
+      <c r="B65" t="s" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="B65" t="s" s="16">
+      <c r="B66" t="s" s="16">
         <v>17</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s" s="17">
-        <v>50</v>
-      </c>
-      <c r="B66" t="s" s="17">
-        <v>50</v>
-      </c>
-    </row>
     <row r="67">
-      <c r="A67" t="s" s="16">
+      <c r="A67" t="s" s="17">
+        <v>51</v>
+      </c>
+      <c r="B67" t="s" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="B67" t="s" s="16">
+      <c r="B68" t="s" s="16">
         <v>21</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s" s="17">
+    <row r="69">
+      <c r="A69" t="s" s="17">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="19">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s" s="20">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s" s="20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="19">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s" s="19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="20">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s" s="20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="20">
         <v>51</v>
       </c>
-      <c r="B68" t="s" s="18">
-        <v>23</v>
+      <c r="B78" t="s" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="20">
+        <v>58</v>
+      </c>
+      <c r="B80" t="s" s="21">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
